--- a/2009Data/EnergyProfileCharts/ProduceTable.xlsx
+++ b/2009Data/EnergyProfileCharts/ProduceTable.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WallofMercury/Documents/Modeling/ModelingAgency/2009Data/EnergyProfileCharts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="660" windowWidth="20980" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="24320" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Energy</t>
   </si>
@@ -58,13 +63,19 @@
   </si>
   <si>
     <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +112,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,21 +142,164 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" dataCellStyle="Percent">
+  <autoFilter ref="A1:F15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Energy" dataDxfId="6"/>
+    <tableColumn id="2" name=" "/>
+    <tableColumn id="3" name="AZ" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="CA" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="NM" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="TX" dataDxfId="2" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,39 +624,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -515,30 +677,30 @@
         <v>11914996.720000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>C2/C2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:F3" si="0">D2/D2</f>
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -557,205 +719,243 @@
         <v>455507.14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>C4/C2</f>
         <v>0.28144942868308814</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:F5" si="1">D4/D2</f>
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>0.19322476049313378</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>3.8229732722914252E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>726.952</v>
+        <v>266.8</v>
       </c>
       <c r="D6">
-        <v>309834.88309999998</v>
+        <v>1328165.2</v>
       </c>
       <c r="E6">
-        <v>1557686.6270000001</v>
+        <v>354646.8</v>
       </c>
       <c r="F6">
-        <v>8074816.2410000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+        <v>2646911.2000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>C6/C2</f>
-        <v>1.2731341162308956E-3</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:F7" si="2">D6/D2</f>
-        <v>0.11892429865050189</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.64574841478254164</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.677701927306951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>4.6725531013107189E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D6/D2</f>
+        <v>0.50979125823939087</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E6/E2</f>
+        <v>0.14702097645196066</v>
+      </c>
+      <c r="F7" s="4">
+        <f>F6/F2</f>
+        <v>0.22214955339072892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>320722.96149999998</v>
+        <v>726.952</v>
       </c>
       <c r="D8">
-        <v>332249.3898</v>
+        <v>309834.88309999998</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1557686.6270000001</v>
       </c>
       <c r="F8">
-        <v>434065.07380000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+        <v>8074816.2410000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>C8/C2</f>
-        <v>0.56169230450464136</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" ref="D9:F9" si="3">D8/D2</f>
-        <v>0.1275276859199532</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>3.6430146310606787E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>1.2731341162308956E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8/D2</f>
+        <v>0.11892429865050189</v>
+      </c>
+      <c r="E9" s="4">
+        <f>E8/E2</f>
+        <v>0.64574841478254164</v>
+      </c>
+      <c r="F9" s="4">
+        <f>F8/F2</f>
+        <v>0.677701927306951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <v>62730.887199999997</v>
-      </c>
-      <c r="D10" s="4">
-        <v>272187.23460000003</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2644.59888</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10039.695250000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
+      <c r="C10">
+        <v>320722.96149999998</v>
+      </c>
+      <c r="D10">
+        <v>332249.3898</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>434065.07380000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f>C10/C2</f>
-        <v>0.10986259427823571</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" ref="D11:F11" si="4">D10/D2</f>
-        <v>0.10447395610382976</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0963344647727305E-3</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>8.4260998856573754E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>0.56169230450464136</v>
+      </c>
+      <c r="D11" s="4">
+        <f>D10/D2</f>
+        <v>0.1275276859199532</v>
+      </c>
+      <c r="E11" s="4">
+        <f>E10/E2</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>F10/F2</f>
+        <v>3.6430146310606787E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>125443.1621</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
+      <c r="C12" s="3">
+        <v>62730.887199999997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>272187.23460000003</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2644.59888</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10039.695250000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>C12/C2</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" ref="D13:F13" si="5">D12/D2</f>
+        <v>0.10986259427823571</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D12/D2</f>
+        <v>0.10447395610382976</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E12/E2</f>
+        <v>1.0963344647727305E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F12/F2</f>
+        <v>8.4260998856573754E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>125443.1621</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C14/C2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D14/D2</f>
         <v>4.8149000925853849E-2</v>
       </c>
-      <c r="E13" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+      <c r="E15" s="4">
+        <f>E14/E2</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>F14/F2</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>